--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H2">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I2">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J2">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N2">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q2">
-        <v>855.3376655536512</v>
+        <v>2785.119548088302</v>
       </c>
       <c r="R2">
-        <v>7698.03898998286</v>
+        <v>25066.07593279471</v>
       </c>
       <c r="S2">
-        <v>0.3251609173948389</v>
+        <v>0.4667495603731523</v>
       </c>
       <c r="T2">
-        <v>0.3251609173948388</v>
+        <v>0.4667495603731522</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H3">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I3">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J3">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q3">
-        <v>194.956133130194</v>
+        <v>384.0461332174521</v>
       </c>
       <c r="R3">
-        <v>1754.605198171746</v>
+        <v>3456.415198957068</v>
       </c>
       <c r="S3">
-        <v>0.0741135549775318</v>
+        <v>0.06436110218869917</v>
       </c>
       <c r="T3">
-        <v>0.07411355497753179</v>
+        <v>0.06436110218869917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H4">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I4">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J4">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N4">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O4">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P4">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q4">
-        <v>523.3617252847517</v>
+        <v>1364.822419805969</v>
       </c>
       <c r="R4">
-        <v>4710.255527562766</v>
+        <v>12283.40177825372</v>
       </c>
       <c r="S4">
-        <v>0.1989585932858245</v>
+        <v>0.2287263628841763</v>
       </c>
       <c r="T4">
-        <v>0.1989585932858245</v>
+        <v>0.2287263628841763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.76232966666667</v>
+        <v>38.93002066666667</v>
       </c>
       <c r="H5">
-        <v>59.28698900000001</v>
+        <v>116.790062</v>
       </c>
       <c r="I5">
-        <v>0.6092018671069146</v>
+        <v>0.7610372167397395</v>
       </c>
       <c r="J5">
-        <v>0.6092018671069145</v>
+        <v>0.7610372167397393</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N5">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q5">
-        <v>28.853495371575</v>
+        <v>7.161605531860668</v>
       </c>
       <c r="R5">
-        <v>259.681458344175</v>
+        <v>64.45444978674601</v>
       </c>
       <c r="S5">
-        <v>0.01096880144871929</v>
+        <v>0.001200191293711721</v>
       </c>
       <c r="T5">
-        <v>0.01096880144871929</v>
+        <v>0.001200191293711721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>29.37475</v>
       </c>
       <c r="I6">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J6">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N6">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q6">
-        <v>423.791636495861</v>
+        <v>700.5064390256666</v>
       </c>
       <c r="R6">
-        <v>3814.124728462749</v>
+        <v>6304.557951230999</v>
       </c>
       <c r="S6">
-        <v>0.1611065230221768</v>
+        <v>0.1173957048551893</v>
       </c>
       <c r="T6">
-        <v>0.1611065230221768</v>
+        <v>0.1173957048551892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>29.37475</v>
       </c>
       <c r="I7">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J7">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.595114</v>
       </c>
       <c r="O7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q7">
         <v>96.5943416635</v>
@@ -883,10 +883,10 @@
         <v>869.3490749714999</v>
       </c>
       <c r="S7">
-        <v>0.03672082502075206</v>
+        <v>0.01618794659529756</v>
       </c>
       <c r="T7">
-        <v>0.03672082502075205</v>
+        <v>0.01618794659529756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>29.37475</v>
       </c>
       <c r="I8">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J8">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N8">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O8">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P8">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q8">
-        <v>259.3084941420833</v>
+        <v>343.2767881927778</v>
       </c>
       <c r="R8">
-        <v>2333.77644727875</v>
+        <v>3089.491093735</v>
       </c>
       <c r="S8">
-        <v>0.09857742882039049</v>
+        <v>0.05752869390660961</v>
       </c>
       <c r="T8">
-        <v>0.09857742882039049</v>
+        <v>0.0575286939066096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>29.37475</v>
       </c>
       <c r="I9">
-        <v>0.3018394566436632</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="J9">
-        <v>0.3018394566436631</v>
+        <v>0.1914142145281647</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N9">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q9">
-        <v>14.29595645625</v>
+        <v>1.801269461583334</v>
       </c>
       <c r="R9">
-        <v>128.66360810625</v>
+        <v>16.21142515425</v>
       </c>
       <c r="S9">
-        <v>0.005434679780343827</v>
+        <v>0.0003018691710683258</v>
       </c>
       <c r="T9">
-        <v>0.005434679780343827</v>
+        <v>0.0003018691710683257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H10">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I10">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J10">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N10">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O10">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P10">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q10">
-        <v>122.6033651527504</v>
+        <v>128.356240535032</v>
       </c>
       <c r="R10">
-        <v>1103.430286374754</v>
+        <v>1155.206164815288</v>
       </c>
       <c r="S10">
-        <v>0.04660828617076978</v>
+        <v>0.02151082486997694</v>
       </c>
       <c r="T10">
-        <v>0.04660828617076977</v>
+        <v>0.02151082486997694</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H11">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I11">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J11">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.595114</v>
       </c>
       <c r="O11">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P11">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q11">
-        <v>27.944844406516</v>
+        <v>17.699318467548</v>
       </c>
       <c r="R11">
-        <v>251.503599658644</v>
+        <v>159.293866207932</v>
       </c>
       <c r="S11">
-        <v>0.01062337321225897</v>
+        <v>0.002966173972425305</v>
       </c>
       <c r="T11">
-        <v>0.01062337321225896</v>
+        <v>0.002966173972425304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H12">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I12">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J12">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N12">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O12">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P12">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q12">
-        <v>75.01821946602333</v>
+        <v>62.89980439958668</v>
       </c>
       <c r="R12">
-        <v>675.16397519421</v>
+        <v>566.0982395962801</v>
       </c>
       <c r="S12">
-        <v>0.02851855360199785</v>
+        <v>0.01054118343724811</v>
       </c>
       <c r="T12">
-        <v>0.02851855360199785</v>
+        <v>0.01054118343724811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.832715333333333</v>
+        <v>1.794146</v>
       </c>
       <c r="H13">
-        <v>8.498146</v>
+        <v>5.382438</v>
       </c>
       <c r="I13">
-        <v>0.08732247154847343</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="J13">
-        <v>0.08732247154847342</v>
+        <v>0.03507349482179579</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N13">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O13">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P13">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q13">
-        <v>4.135835204549999</v>
+        <v>0.330052892306</v>
       </c>
       <c r="R13">
-        <v>37.22251684095</v>
+        <v>2.970476030754</v>
       </c>
       <c r="S13">
-        <v>0.00157225856344683</v>
+        <v>5.531254214543638E-05</v>
       </c>
       <c r="T13">
-        <v>0.00157225856344683</v>
+        <v>5.531254214543637E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H14">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I14">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J14">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N14">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O14">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P14">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q14">
-        <v>2.297280400540666</v>
+        <v>45.65423536087732</v>
       </c>
       <c r="R14">
-        <v>20.67552360486599</v>
+        <v>410.8881182478959</v>
       </c>
       <c r="S14">
-        <v>0.0008733227035775044</v>
+        <v>0.007651051926474187</v>
       </c>
       <c r="T14">
-        <v>0.0008733227035775043</v>
+        <v>0.007651051926474187</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H15">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I15">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J15">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.595114</v>
       </c>
       <c r="O15">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P15">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q15">
-        <v>0.523616486964</v>
+        <v>6.295360846315999</v>
       </c>
       <c r="R15">
-        <v>4.712548382675999</v>
+        <v>56.65824761684399</v>
       </c>
       <c r="S15">
-        <v>0.0001990554422200847</v>
+        <v>0.00105502002936471</v>
       </c>
       <c r="T15">
-        <v>0.0001990554422200846</v>
+        <v>0.00105502002936471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H16">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I16">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J16">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N16">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O16">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P16">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q16">
-        <v>1.40565379301</v>
+        <v>22.37244143519555</v>
       </c>
       <c r="R16">
-        <v>12.65088413709</v>
+        <v>201.35197291676</v>
       </c>
       <c r="S16">
-        <v>0.0005343663622936726</v>
+        <v>0.003749328179294568</v>
       </c>
       <c r="T16">
-        <v>0.0005343663622936726</v>
+        <v>0.003749328179294568</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05307799999999999</v>
+        <v>0.6381486666666666</v>
       </c>
       <c r="H17">
-        <v>0.159234</v>
+        <v>1.914446</v>
       </c>
       <c r="I17">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="J17">
-        <v>0.001636204700948844</v>
+        <v>0.01247507391030006</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N17">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O17">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P17">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q17">
-        <v>0.07749520694999998</v>
+        <v>0.1173944668686667</v>
       </c>
       <c r="R17">
-        <v>0.6974568625499999</v>
+        <v>1.056550201818</v>
       </c>
       <c r="S17">
-        <v>2.946019285758241E-05</v>
+        <v>1.967377516659961E-05</v>
       </c>
       <c r="T17">
-        <v>2.946019285758242E-05</v>
+        <v>1.967377516659961E-05</v>
       </c>
     </row>
   </sheetData>
